--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiZhe\SideProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B72F4-F1E9-49F7-AF23-D6720FA00A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D77321-E0BE-4B3B-AD50-FBED9CFA8112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B1BFEA24-24F2-4D5E-8EB2-CEAD8E845F52}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>cook</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>absent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +500,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -578,9 +574,6 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiZhe\SideProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiZhe\SideProject\LaCook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D77321-E0BE-4B3B-AD50-FBED9CFA8112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C6CA5-8BDC-4F72-B108-73065FE8793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B1BFEA24-24F2-4D5E-8EB2-CEAD8E845F52}"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="12975" windowHeight="12900" xr2:uid="{B1BFEA24-24F2-4D5E-8EB2-CEAD8E845F52}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>cook</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jia_Lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rain_Stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +109,6 @@
   </si>
   <si>
     <t>weekday/weekend/both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,8 +165,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,20 +489,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D40C80-A405-4550-ADDC-6491A99D2C2E}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="4.75" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
     <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -537,459 +536,359 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>9.9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>99</v>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="2">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>99</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
         <v>9</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
+      <c r="I10" s="2">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
